--- a/MoPanda/data/core/Rel-k/MICP - 6H.xlsx
+++ b/MoPanda/data/core/Rel-k/MICP - 6H.xlsx
@@ -1590,7 +1590,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H38"/>
+  <dimension ref="A1:K38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1636,7 +1636,22 @@
       </c>
       <c r="H1" s="3" t="inlineStr">
         <is>
-          <t>Unnamed: 7</t>
+          <t>Capillary Pressure_Reservoir (psi)</t>
+        </is>
+      </c>
+      <c r="I1" s="3" t="inlineStr">
+        <is>
+          <t>Capillary Pressure_Reservoir (MPa)</t>
+        </is>
+      </c>
+      <c r="J1" s="3" t="inlineStr">
+        <is>
+          <t>Normalized Wetting-phase Saturation</t>
+        </is>
+      </c>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Normalized Wetting-phase Saturation_imbibition</t>
         </is>
       </c>
     </row>
@@ -1656,14 +1671,19 @@
       <c r="E2" t="n">
         <v>0</v>
       </c>
-      <c r="F2" t="n">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="n">
+        <v>0.1347222222222222</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0.0009288773888888887</v>
+      </c>
+      <c r="J2" t="n">
         <v>1</v>
       </c>
-      <c r="G2" t="n">
-        <v>0.7475145358088204</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0.3963788397259369</v>
+      <c r="K2" t="n">
+        <v>1.411866163432258</v>
       </c>
     </row>
     <row r="3">
@@ -1682,14 +1702,19 @@
       <c r="E3" t="n">
         <v>2.661583321154484e-06</v>
       </c>
-      <c r="F3" t="n">
-        <v>0.9922774686952647</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0.7391201553118487</v>
-      </c>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
       <c r="H3" t="n">
-        <v>0.3823964433256754</v>
+        <v>0.2694444444444444</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0.001857754777777777</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0.9920837189359907</v>
+      </c>
+      <c r="K3" t="n">
+        <v>1.400689434057764</v>
       </c>
     </row>
     <row r="4">
@@ -1708,14 +1733,19 @@
       <c r="E4" t="n">
         <v>8.808637926963894e-05</v>
       </c>
-      <c r="F4" t="n">
-        <v>0.9748639177139991</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0.720191650269658</v>
-      </c>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
       <c r="H4" t="n">
-        <v>0.3521153035043614</v>
+        <v>0.4034722222222221</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0.002781844138888888</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0.9742332812426366</v>
+      </c>
+      <c r="K4" t="n">
+        <v>1.375487005076062</v>
       </c>
     </row>
     <row r="5">
@@ -1734,14 +1764,19 @@
       <c r="E5" t="n">
         <v>0.001054773395990648</v>
       </c>
-      <c r="F5" t="n">
-        <v>0.9409453488461423</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0.6833222143613908</v>
-      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
       <c r="H5" t="n">
-        <v>0.2979265557502395</v>
+        <v>0.5381944444444443</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0.003710721527777777</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0.9394637330399295</v>
+      </c>
+      <c r="K5" t="n">
+        <v>1.326397056450833</v>
       </c>
     </row>
     <row r="6">
@@ -1760,14 +1795,19 @@
       <c r="E6" t="n">
         <v>0.02371352604047487</v>
       </c>
-      <c r="F6" t="n">
-        <v>0.8166277370581498</v>
-      </c>
-      <c r="G6" t="n">
-        <v>0.5481891479297508</v>
-      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
       <c r="H6" t="n">
-        <v>0.1478423236620138</v>
+        <v>0.6729166666666665</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0.004639598916666666</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0.8120271300291142</v>
+      </c>
+      <c r="K6" t="n">
+        <v>1.146473628677113</v>
       </c>
     </row>
     <row r="7">
@@ -1786,14 +1826,19 @@
       <c r="E7" t="n">
         <v>0.2279873702229636</v>
       </c>
-      <c r="F7" t="n">
-        <v>0.5227172809308737</v>
-      </c>
-      <c r="G7" t="n">
-        <v>0.2287089019567745</v>
-      </c>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
       <c r="H7" t="n">
-        <v>0.009173185140544703</v>
+        <v>0.9444444444444443</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0.006511717777777776</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0.5107427860047627</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0.7211004577772474</v>
       </c>
     </row>
     <row r="8">
@@ -1812,14 +1857,19 @@
       <c r="E8" t="n">
         <v>0.4295434508516193</v>
       </c>
-      <c r="F8" t="n">
-        <v>0.351913059132024</v>
-      </c>
-      <c r="G8" t="n">
-        <v>0.04304495684728615</v>
-      </c>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
       <c r="H8" t="n">
-        <v>4.527649925311636e-05</v>
+        <v>1.208333333333333</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0.008331168333333331</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0.3356532754125586</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0.4738975022002004</v>
       </c>
     </row>
     <row r="9">
@@ -1838,13 +1888,20 @@
       <c r="E9" t="n">
         <v>0.5306521344927141</v>
       </c>
-      <c r="F9" t="n">
-        <v>0.2802903668351658</v>
-      </c>
-      <c r="G9" t="n">
-        <v>-0.03480880736972463</v>
-      </c>
-      <c r="H9" t="inlineStr"/>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="n">
+        <v>1.618055555555555</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0.01115610472222222</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0.2622336490738063</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0.3702388160406761</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -1862,13 +1919,20 @@
       <c r="E10" t="n">
         <v>0.5945318349494113</v>
       </c>
-      <c r="F10" t="n">
-        <v>0.2383464222976824</v>
-      </c>
-      <c r="G10" t="n">
-        <v>-0.08040181516700143</v>
-      </c>
-      <c r="H10" t="inlineStr"/>
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="n">
+        <v>2.020833333333333</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0.01393316083333333</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0.2192373774124229</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0.3095338349282276</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -1886,13 +1950,20 @@
       <c r="E11" t="n">
         <v>0.6438191749222796</v>
       </c>
-      <c r="F11" t="n">
-        <v>0.2074562970787414</v>
-      </c>
-      <c r="G11" t="n">
-        <v>-0.1139793371548877</v>
-      </c>
-      <c r="H11" t="inlineStr"/>
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="n">
+        <v>2.555555555555555</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0.01761994222222222</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0.1875722531563859</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0.2648269174302508</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -1910,13 +1981,20 @@
       <c r="E12" t="n">
         <v>0.6863591978650018</v>
       </c>
-      <c r="F12" t="n">
-        <v>0.1817145260629573</v>
-      </c>
-      <c r="G12" t="n">
-        <v>-0.1419606054781261</v>
-      </c>
-      <c r="H12" t="inlineStr"/>
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="n">
+        <v>3.229166666666666</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0.02226432916666667</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0.1611846496096885</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0.2275711528486038</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -1934,13 +2012,20 @@
       <c r="E13" t="n">
         <v>0.7130451575267458</v>
       </c>
-      <c r="F13" t="n">
-        <v>0.165966619088595</v>
-      </c>
-      <c r="G13" t="n">
-        <v>-0.1590785578641077</v>
-      </c>
-      <c r="H13" t="inlineStr"/>
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="n">
+        <v>4.034722222222221</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0.02781844138888888</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0.1450416450870027</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0.2047793909868897</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -1958,13 +2043,20 @@
       <c r="E14" t="n">
         <v>0.7349670974923024</v>
       </c>
-      <c r="F14" t="n">
-        <v>0.153247155763149</v>
-      </c>
-      <c r="G14" t="n">
-        <v>-0.1729045963297076</v>
-      </c>
-      <c r="H14" t="inlineStr"/>
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="n">
+        <v>4.847222222222221</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0.03342043388888889</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0.1320030645109877</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0.1863706602524291</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -1982,13 +2074,20 @@
       <c r="E15" t="n">
         <v>0.7652454362408058</v>
       </c>
-      <c r="F15" t="n">
-        <v>0.1359850269643294</v>
-      </c>
-      <c r="G15" t="n">
-        <v>-0.1916685056758789</v>
-      </c>
-      <c r="H15" t="inlineStr"/>
+      <c r="F15" t="inlineStr"/>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="n">
+        <v>6.458333333333332</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0.04452865833333333</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0.1143078480149675</v>
+      </c>
+      <c r="K15" t="n">
+        <v>0.1613873828270899</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -2006,13 +2105,20 @@
       <c r="E16" t="n">
         <v>0.7980483988824575</v>
       </c>
-      <c r="F16" t="n">
-        <v>0.117662942888389</v>
-      </c>
-      <c r="G16" t="n">
-        <v>-0.2115845848941839</v>
-      </c>
-      <c r="H16" t="inlineStr"/>
+      <c r="F16" t="inlineStr"/>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="n">
+        <v>8.47222222222222</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0.05841393888888887</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0.09552608313761229</v>
+      </c>
+      <c r="K16" t="n">
+        <v>0.1348700445072116</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -2030,13 +2136,20 @@
       <c r="E17" t="n">
         <v>0.8131857007569578</v>
       </c>
-      <c r="F17" t="n">
-        <v>0.1093347228538707</v>
-      </c>
-      <c r="G17" t="n">
-        <v>-0.2206373481752316</v>
-      </c>
-      <c r="H17" t="inlineStr"/>
+      <c r="F17" t="inlineStr"/>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="n">
+        <v>10.48611111111111</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0.07229921944444442</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0.08698891728426909</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0.1228167089072671</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -2054,13 +2167,20 @@
       <c r="E18" t="n">
         <v>0.8377006074981383</v>
       </c>
-      <c r="F18" t="n">
-        <v>0.09600957079864123</v>
-      </c>
-      <c r="G18" t="n">
-        <v>-0.2351217694249081</v>
-      </c>
-      <c r="H18" t="inlineStr"/>
+      <c r="F18" t="inlineStr"/>
+      <c r="G18" t="inlineStr"/>
+      <c r="H18" t="n">
+        <v>13.75</v>
+      </c>
+      <c r="I18" t="n">
+        <v>0.09480294999999998</v>
+      </c>
+      <c r="J18" t="n">
+        <v>0.07332945191891974</v>
+      </c>
+      <c r="K18" t="n">
+        <v>0.1035313719473555</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -2078,13 +2198,20 @@
       <c r="E19" t="n">
         <v>0.8492464739726465</v>
       </c>
-      <c r="F19" t="n">
-        <v>0.08980126131836384</v>
-      </c>
-      <c r="G19" t="n">
-        <v>-0.2418701929616892</v>
-      </c>
-      <c r="H19" t="inlineStr"/>
+      <c r="F19" t="inlineStr"/>
+      <c r="G19" t="inlineStr"/>
+      <c r="H19" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0.1206583</v>
+      </c>
+      <c r="J19" t="n">
+        <v>0.06696538282824561</v>
+      </c>
+      <c r="K19" t="n">
+        <v>0.09454615813648758</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -2102,13 +2229,20 @@
       <c r="E20" t="n">
         <v>0.8580286870673293</v>
       </c>
-      <c r="F20" t="n">
-        <v>0.08510717366254449</v>
-      </c>
-      <c r="G20" t="n">
-        <v>-0.2469726595382796</v>
-      </c>
-      <c r="H20" t="inlineStr"/>
+      <c r="F20" t="inlineStr"/>
+      <c r="G20" t="inlineStr"/>
+      <c r="H20" t="n">
+        <v>22.22222222222222</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0.1532168888888888</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0.06215352571090676</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0.08775245988924617</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -2126,13 +2260,20 @@
       <c r="E21" t="n">
         <v>0.8691413968712989</v>
       </c>
-      <c r="F21" t="n">
-        <v>0.07920170854715884</v>
-      </c>
-      <c r="G21" t="n">
-        <v>-0.2533918916830225</v>
-      </c>
-      <c r="H21" t="inlineStr"/>
+      <c r="F21" t="inlineStr"/>
+      <c r="G21" t="inlineStr"/>
+      <c r="H21" t="n">
+        <v>28.26388888888889</v>
+      </c>
+      <c r="I21" t="n">
+        <v>0.1948727305555555</v>
+      </c>
+      <c r="J21" t="n">
+        <v>0.05609989901489983</v>
+      </c>
+      <c r="K21" t="n">
+        <v>0.07920554919110376</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -2150,13 +2291,20 @@
       <c r="E22" t="n">
         <v>0.8786002729549979</v>
       </c>
-      <c r="F22" t="n">
-        <v>0.07420477652644764</v>
-      </c>
-      <c r="G22" t="n">
-        <v>-0.2588235496516513</v>
-      </c>
-      <c r="H22" t="inlineStr"/>
+      <c r="F22" t="inlineStr"/>
+      <c r="G22" t="inlineStr"/>
+      <c r="H22" t="n">
+        <v>36.31944444444444</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0.2504138527777777</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0.05097759950289368</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0.0719735478311367</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -2174,13 +2322,20 @@
       <c r="E23" t="n">
         <v>0.8878213838725507</v>
       </c>
-      <c r="F23" t="n">
-        <v>0.06935926668818229</v>
-      </c>
-      <c r="G23" t="n">
-        <v>-0.264090611924261</v>
-      </c>
-      <c r="H23" t="inlineStr"/>
+      <c r="F23" t="inlineStr"/>
+      <c r="G23" t="inlineStr"/>
+      <c r="H23" t="n">
+        <v>46.45833333333333</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0.3203190583333333</v>
+      </c>
+      <c r="J23" t="n">
+        <v>0.04601052118822112</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0.06496069802753239</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -2198,13 +2353,20 @@
       <c r="E24" t="n">
         <v>0.888977406132659</v>
       </c>
-      <c r="F24" t="n">
-        <v>0.06875357795839927</v>
-      </c>
-      <c r="G24" t="n">
-        <v>-0.2647489947083371</v>
-      </c>
-      <c r="H24" t="inlineStr"/>
+      <c r="F24" t="inlineStr"/>
+      <c r="G24" t="inlineStr"/>
+      <c r="H24" t="n">
+        <v>59.2361111111111</v>
+      </c>
+      <c r="I24" t="n">
+        <v>0.4084187694444443</v>
+      </c>
+      <c r="J24" t="n">
+        <v>0.04538963639888719</v>
+      </c>
+      <c r="K24" t="n">
+        <v>0.06408409180208205</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -2222,13 +2384,20 @@
       <c r="E25" t="n">
         <v>0.9011610371261046</v>
       </c>
-      <c r="F25" t="n">
-        <v>0.06239384629567614</v>
-      </c>
-      <c r="G25" t="n">
-        <v>-0.2716620139411372</v>
-      </c>
-      <c r="H25" t="inlineStr"/>
+      <c r="F25" t="inlineStr"/>
+      <c r="G25" t="inlineStr"/>
+      <c r="H25" t="n">
+        <v>75.69444444444443</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0.5218950277777776</v>
+      </c>
+      <c r="J25" t="n">
+        <v>0.03887034611087958</v>
+      </c>
+      <c r="K25" t="n">
+        <v>0.05487972643485157</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -2246,13 +2415,20 @@
       <c r="E26" t="n">
         <v>0.9099143884559514</v>
       </c>
-      <c r="F26" t="n">
-        <v>0.05785118082230253</v>
-      </c>
-      <c r="G26" t="n">
-        <v>-0.2765998848217087</v>
-      </c>
-      <c r="H26" t="inlineStr"/>
+      <c r="F26" t="inlineStr"/>
+      <c r="G26" t="inlineStr"/>
+      <c r="H26" t="n">
+        <v>96.52777777777776</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0.665535861111111</v>
+      </c>
+      <c r="J26" t="n">
+        <v>0.03421371019087421</v>
+      </c>
+      <c r="K26" t="n">
+        <v>0.04830517974397274</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -2270,13 +2446,20 @@
       <c r="E27" t="n">
         <v>0.9187100407381715</v>
       </c>
-      <c r="F27" t="n">
-        <v>0.05330851534892871</v>
-      </c>
-      <c r="G27" t="n">
-        <v>-0.2815377557022803</v>
-      </c>
-      <c r="H27" t="inlineStr"/>
+      <c r="F27" t="inlineStr"/>
+      <c r="G27" t="inlineStr"/>
+      <c r="H27" t="n">
+        <v>122.2222222222222</v>
+      </c>
+      <c r="I27" t="n">
+        <v>0.8426928888888887</v>
+      </c>
+      <c r="J27" t="n">
+        <v>0.02955707427086862</v>
+      </c>
+      <c r="K27" t="n">
+        <v>0.0417306330530936</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -2294,13 +2477,20 @@
       <c r="E28" t="n">
         <v>0.9267061427907718</v>
       </c>
-      <c r="F28" t="n">
-        <v>0.04919762307173006</v>
-      </c>
-      <c r="G28" t="n">
-        <v>-0.2860062897353775</v>
-      </c>
-      <c r="H28" t="inlineStr"/>
+      <c r="F28" t="inlineStr"/>
+      <c r="G28" t="inlineStr"/>
+      <c r="H28" t="n">
+        <v>156.25</v>
+      </c>
+      <c r="I28" t="n">
+        <v>1.07730625</v>
+      </c>
+      <c r="J28" t="n">
+        <v>0.02534304425842761</v>
+      </c>
+      <c r="K28" t="n">
+        <v>0.03578098666684012</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -2318,13 +2508,20 @@
       <c r="E29" t="n">
         <v>0.9339720895221599</v>
       </c>
-      <c r="F29" t="n">
-        <v>0.04547746462867812</v>
-      </c>
-      <c r="G29" t="n">
-        <v>-0.2900500966489021</v>
-      </c>
-      <c r="H29" t="inlineStr"/>
+      <c r="F29" t="inlineStr"/>
+      <c r="G29" t="inlineStr"/>
+      <c r="H29" t="n">
+        <v>199.3055555555555</v>
+      </c>
+      <c r="I29" t="n">
+        <v>1.374163972222222</v>
+      </c>
+      <c r="J29" t="n">
+        <v>0.02152955115937234</v>
+      </c>
+      <c r="K29" t="n">
+        <v>0.03039684479580155</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -2342,13 +2539,20 @@
       <c r="E30" t="n">
         <v>0.9405718747644934</v>
       </c>
-      <c r="F30" t="n">
-        <v>0.0421109013844469</v>
-      </c>
-      <c r="G30" t="n">
-        <v>-0.2937095460864029</v>
-      </c>
-      <c r="H30" t="inlineStr"/>
+      <c r="F30" t="inlineStr"/>
+      <c r="G30" t="inlineStr"/>
+      <c r="H30" t="n">
+        <v>254.1666666666666</v>
+      </c>
+      <c r="I30" t="n">
+        <v>1.752418166666666</v>
+      </c>
+      <c r="J30" t="n">
+        <v>0.0180785245711401</v>
+      </c>
+      <c r="K30" t="n">
+        <v>0.02552445712677138</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -2366,13 +2570,20 @@
       <c r="E31" t="n">
         <v>0.9465643884795376</v>
       </c>
-      <c r="F31" t="n">
-        <v>0.03906432467248602</v>
-      </c>
-      <c r="G31" t="n">
-        <v>-0.2970211706204118</v>
-      </c>
-      <c r="H31" t="inlineStr"/>
+      <c r="F31" t="inlineStr"/>
+      <c r="G31" t="inlineStr"/>
+      <c r="H31" t="n">
+        <v>324.3055555555555</v>
+      </c>
+      <c r="I31" t="n">
+        <v>2.236008972222222</v>
+      </c>
+      <c r="J31" t="n">
+        <v>0.01495551262295165</v>
+      </c>
+      <c r="K31" t="n">
+        <v>0.02111518222912946</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -2390,13 +2601,20 @@
       <c r="E32" t="n">
         <v>0.9520037247785462</v>
       </c>
-      <c r="F32" t="n">
-        <v>0.03630732027704838</v>
-      </c>
-      <c r="G32" t="n">
-        <v>-0.3000180304600004</v>
-      </c>
-      <c r="H32" t="inlineStr"/>
+      <c r="F32" t="inlineStr"/>
+      <c r="G32" t="inlineStr"/>
+      <c r="H32" t="n">
+        <v>413.1944444444443</v>
+      </c>
+      <c r="I32" t="n">
+        <v>2.848876527777777</v>
+      </c>
+      <c r="J32" t="n">
+        <v>0.01212933804006448</v>
+      </c>
+      <c r="K32" t="n">
+        <v>0.01712500196359879</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -2414,13 +2632,20 @@
       <c r="E33" t="n">
         <v>0.9569394926873882</v>
       </c>
-      <c r="F33" t="n">
-        <v>0.03381236480567621</v>
-      </c>
-      <c r="G33" t="n">
-        <v>-0.3027300434934543</v>
-      </c>
-      <c r="H33" t="inlineStr"/>
+      <c r="F33" t="inlineStr"/>
+      <c r="G33" t="inlineStr"/>
+      <c r="H33" t="n">
+        <v>527.7777777777777</v>
+      </c>
+      <c r="I33" t="n">
+        <v>3.63890111111111</v>
+      </c>
+      <c r="J33" t="n">
+        <v>0.009571786898580712</v>
+      </c>
+      <c r="K33" t="n">
+        <v>0.0135140820456903</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -2438,13 +2663,20 @@
       <c r="E34" t="n">
         <v>0.9614171236164561</v>
       </c>
-      <c r="F34" t="n">
-        <v>0.03155455092100086</v>
-      </c>
-      <c r="G34" t="n">
-        <v>-0.3051842839609147</v>
-      </c>
-      <c r="H34" t="inlineStr"/>
+      <c r="F34" t="inlineStr"/>
+      <c r="G34" t="inlineStr"/>
+      <c r="H34" t="n">
+        <v>690.2777777777776</v>
+      </c>
+      <c r="I34" t="n">
+        <v>4.75929961111111</v>
+      </c>
+      <c r="J34" t="n">
+        <v>0.00725732696361701</v>
+      </c>
+      <c r="K34" t="n">
+        <v>0.01024637437689543</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -2462,13 +2694,20 @@
       <c r="E35" t="n">
         <v>0.9654781711076408</v>
       </c>
-      <c r="F35" t="n">
-        <v>0.02951133868882873</v>
-      </c>
-      <c r="G35" t="n">
-        <v>-0.3074052527386525</v>
-      </c>
-      <c r="H35" t="inlineStr"/>
+      <c r="F35" t="inlineStr"/>
+      <c r="G35" t="inlineStr"/>
+      <c r="H35" t="n">
+        <v>902.7777777777776</v>
+      </c>
+      <c r="I35" t="n">
+        <v>6.22443611111111</v>
+      </c>
+      <c r="J35" t="n">
+        <v>0.005162852798989355</v>
+      </c>
+      <c r="K35" t="n">
+        <v>0.007289257173674597</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -2486,13 +2725,20 @@
       <c r="E36" t="n">
         <v>0.9691605997053863</v>
       </c>
-      <c r="F36" t="n">
-        <v>0.02766233056019887</v>
-      </c>
-      <c r="G36" t="n">
-        <v>-0.3094151219332513</v>
-      </c>
-      <c r="H36" t="inlineStr"/>
+      <c r="F36" t="inlineStr"/>
+      <c r="G36" t="inlineStr"/>
+      <c r="H36" t="n">
+        <v>1180.555555555555</v>
+      </c>
+      <c r="I36" t="n">
+        <v>8.139647222222219</v>
+      </c>
+      <c r="J36" t="n">
+        <v>0.003267455103819559</v>
+      </c>
+      <c r="K36" t="n">
+        <v>0.004613209301616872</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -2510,13 +2756,20 @@
       <c r="E37" t="n">
         <v>0.972499060799708</v>
       </c>
-      <c r="F37" t="n">
-        <v>0.02598906774104255</v>
-      </c>
-      <c r="G37" t="n">
-        <v>-0.3112339562274964</v>
-      </c>
-      <c r="H37" t="inlineStr"/>
+      <c r="F37" t="inlineStr"/>
+      <c r="G37" t="inlineStr"/>
+      <c r="H37" t="n">
+        <v>1541.666666666666</v>
+      </c>
+      <c r="I37" t="n">
+        <v>10.62942166666667</v>
+      </c>
+      <c r="J37" t="n">
+        <v>0.00155221197333516</v>
+      </c>
+      <c r="K37" t="n">
+        <v>0.002191515563626328</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -2534,13 +2787,20 @@
       <c r="E38" t="n">
         <v>0.9755251540689578</v>
       </c>
-      <c r="F38" t="n">
-        <v>0.02447484591658465</v>
-      </c>
-      <c r="G38" t="n">
-        <v>-0.3128799131876868</v>
-      </c>
-      <c r="H38" t="inlineStr"/>
+      <c r="F38" t="inlineStr"/>
+      <c r="G38" t="inlineStr"/>
+      <c r="H38" t="n">
+        <v>2020.833333333333</v>
+      </c>
+      <c r="I38" t="n">
+        <v>13.93316083333333</v>
+      </c>
+      <c r="J38" t="n">
+        <v>0</v>
+      </c>
+      <c r="K38" t="n">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2553,7 +2813,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G51"/>
+  <dimension ref="A1:I51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2594,7 +2854,17 @@
       </c>
       <c r="G1" s="3" t="inlineStr">
         <is>
-          <t>lambda</t>
+          <t>lambda_d</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="inlineStr">
+        <is>
+          <t>lambda_i</t>
+        </is>
+      </c>
+      <c r="I1" s="3" t="inlineStr">
+        <is>
+          <t>Interpolated_Capillary_Pressure</t>
         </is>
       </c>
     </row>
@@ -2603,7 +2873,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>0.7050496472579212</v>
+        <v>0.7118744178126046</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -2612,1080 +2882,1440 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0.1378104341365077</v>
+        <v>0.93</v>
       </c>
       <c r="F2" t="n">
-        <v>0.07500679393926406</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0.4281908608417892</v>
+        <v>1.324940999469891</v>
+      </c>
+      <c r="H2" t="n">
+        <v>1.326442437152609</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0.1347222222222222</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0.9798431271588667</v>
+        <v>0.9809739256897104</v>
       </c>
       <c r="B3" t="n">
-        <v>0.6846383116726116</v>
+        <v>0.6987284574245068</v>
       </c>
       <c r="C3" t="n">
-        <v>0.890944069511763</v>
+        <v>0.9495718069405794</v>
       </c>
       <c r="D3" t="n">
-        <v>4.430937250864134e-05</v>
+        <v>1.823334046255384e-05</v>
       </c>
       <c r="E3" t="n">
-        <v>0.1166624272714962</v>
+        <v>0.8831328936359607</v>
       </c>
       <c r="F3" t="n">
-        <v>0.0878505667310302</v>
+        <v>1.822124411366061e-05</v>
       </c>
       <c r="G3" t="n">
-        <v>0.4281908608417892</v>
+        <v>1.324940999469891</v>
+      </c>
+      <c r="H3" t="n">
+        <v>1.326442437152609</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0.3546418712412502</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0.9596862543177334</v>
+        <v>0.9619478513794208</v>
       </c>
       <c r="B4" t="n">
-        <v>0.6642269760873019</v>
+        <v>0.6855824970364091</v>
       </c>
       <c r="C4" t="n">
-        <v>0.791878284511655</v>
+        <v>0.9007048272861525</v>
       </c>
       <c r="D4" t="n">
-        <v>0.0003382390146936657</v>
+        <v>0.0001436087696615533</v>
       </c>
       <c r="E4" t="n">
-        <v>0.0982629774783032</v>
+        <v>0.8377151358621111</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1016650092683765</v>
+        <v>0.0001435160109430362</v>
       </c>
       <c r="G4" t="n">
-        <v>0.4281908608417892</v>
+        <v>1.324940999469891</v>
+      </c>
+      <c r="H4" t="n">
+        <v>1.326442437152609</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0.4529129211208294</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0.9395293814766001</v>
+        <v>0.9429217770691314</v>
       </c>
       <c r="B5" t="n">
-        <v>0.6438156405019925</v>
+        <v>0.6724365366483112</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7020688700140298</v>
+        <v>0.8533824032095191</v>
       </c>
       <c r="D5" t="n">
-        <v>0.001089443483287081</v>
+        <v>0.0004771132095173446</v>
       </c>
       <c r="E5" t="n">
-        <v>0.08232317430012966</v>
+        <v>0.7937313140076696</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1164231792687987</v>
+        <v>0.0004768134127813919</v>
       </c>
       <c r="G5" t="n">
-        <v>0.4281908608417892</v>
+        <v>1.324940999469891</v>
+      </c>
+      <c r="H5" t="n">
+        <v>1.326442437152609</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0.5275526654114023</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0.9193725086354668</v>
+        <v>0.9238957027588418</v>
       </c>
       <c r="B6" t="n">
-        <v>0.6234043049166831</v>
+        <v>0.6592905762602134</v>
       </c>
       <c r="C6" t="n">
-        <v>0.6208220744247768</v>
+        <v>0.8075877020934059</v>
       </c>
       <c r="D6" t="n">
-        <v>0.002464956963077379</v>
+        <v>0.001113129374365433</v>
       </c>
       <c r="E6" t="n">
-        <v>0.06857686508226227</v>
+        <v>0.7511658531108165</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1320984504649138</v>
+        <v>0.001112449527740017</v>
       </c>
       <c r="G6" t="n">
-        <v>0.4281908608417892</v>
+        <v>1.324940999469891</v>
+      </c>
+      <c r="H6" t="n">
+        <v>1.326442437152609</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0.5556555214452812</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>0.8992156357943335</v>
+        <v>0.9048696284485522</v>
       </c>
       <c r="B7" t="n">
-        <v>0.6029929693313735</v>
+        <v>0.6461446158721156</v>
       </c>
       <c r="C7" t="n">
-        <v>0.5474827750510654</v>
+        <v>0.7633037108345861</v>
       </c>
       <c r="D7" t="n">
-        <v>0.004596438313137326</v>
+        <v>0.002139559125929181</v>
       </c>
       <c r="E7" t="n">
-        <v>0.05677949884284648</v>
+        <v>0.7100030106239578</v>
       </c>
       <c r="F7" t="n">
-        <v>0.1486653054013051</v>
+        <v>0.002138290134958616</v>
       </c>
       <c r="G7" t="n">
-        <v>0.4281908608417892</v>
+        <v>1.324940999469891</v>
+      </c>
+      <c r="H7" t="n">
+        <v>1.326442437152609</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0.5760200801798591</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>0.8790587629532002</v>
+        <v>0.8858435541382628</v>
       </c>
       <c r="B8" t="n">
-        <v>0.5825816337460638</v>
+        <v>0.6329986554840178</v>
       </c>
       <c r="C8" t="n">
-        <v>0.4814331035385921</v>
+        <v>0.7205132298308761</v>
       </c>
       <c r="D8" t="n">
-        <v>0.007584965371358035</v>
+        <v>0.003637948864312169</v>
       </c>
       <c r="E8" t="n">
-        <v>0.04670699447712306</v>
+        <v>0.6702268708239909</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1660999548626523</v>
+        <v>0.003635855482697936</v>
       </c>
       <c r="G8" t="n">
-        <v>0.4281908608417892</v>
+        <v>1.324940999469891</v>
+      </c>
+      <c r="H8" t="n">
+        <v>1.326442437152609</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0.5963846389144368</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>0.8589018901120669</v>
+        <v>0.8668174798279732</v>
       </c>
       <c r="B9" t="n">
-        <v>0.5621702981607544</v>
+        <v>0.61985269509592</v>
       </c>
       <c r="C9" t="n">
-        <v>0.422091091379159</v>
+        <v>0.6791988666256986</v>
       </c>
       <c r="D9" t="n">
-        <v>0.01150540157405152</v>
+        <v>0.005683617052390269</v>
       </c>
       <c r="E9" t="n">
-        <v>0.03815463355474896</v>
+        <v>0.6318213389040197</v>
       </c>
       <c r="F9" t="n">
-        <v>0.184380801140018</v>
+        <v>0.005680447186657854</v>
       </c>
       <c r="G9" t="n">
-        <v>0.4281908608417892</v>
+        <v>1.324940999469891</v>
+      </c>
+      <c r="H9" t="n">
+        <v>1.326442437152609</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0.6167491976490147</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0.8387450172709335</v>
+        <v>0.8477914055176836</v>
       </c>
       <c r="B10" t="n">
-        <v>0.5417589625754448</v>
+        <v>0.6067067347078222</v>
       </c>
       <c r="C10" t="n">
-        <v>0.3689093356356289</v>
+        <v>0.639343029182235</v>
       </c>
       <c r="D10" t="n">
-        <v>0.01641035748690468</v>
+        <v>0.00834578397856456</v>
       </c>
       <c r="E10" t="n">
-        <v>0.03093597798138884</v>
+        <v>0.5947701347204732</v>
       </c>
       <c r="F10" t="n">
-        <v>0.2034887617340258</v>
+        <v>0.008341277363447754</v>
       </c>
       <c r="G10" t="n">
-        <v>0.4281908608417892</v>
+        <v>1.324940999469891</v>
+      </c>
+      <c r="H10" t="n">
+        <v>1.326442437152609</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0.6371137563835926</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>0.8185881444298002</v>
+        <v>0.828765331207394</v>
       </c>
       <c r="B11" t="n">
-        <v>0.5213476269901354</v>
+        <v>0.5935607743197244</v>
       </c>
       <c r="C11" t="n">
-        <v>0.3213736850357577</v>
+        <v>0.6009279187561805</v>
       </c>
       <c r="D11" t="n">
-        <v>0.02233376937864007</v>
+        <v>0.01168770387123345</v>
       </c>
       <c r="E11" t="n">
-        <v>0.02488181280826721</v>
+        <v>0.5590567861667931</v>
       </c>
       <c r="F11" t="n">
-        <v>0.2234074694755306</v>
+        <v>0.01168160011253632</v>
       </c>
       <c r="G11" t="n">
-        <v>0.4281908608417892</v>
+        <v>1.324940999469891</v>
+      </c>
+      <c r="H11" t="n">
+        <v>1.326442437152609</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0.6574783151181705</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>0.798431271588667</v>
+        <v>0.8097392568971045</v>
       </c>
       <c r="B12" t="n">
-        <v>0.5009362914048258</v>
+        <v>0.5804148139316265</v>
       </c>
       <c r="C12" t="n">
-        <v>0.2790019465910938</v>
+        <v>0.5639355223326969</v>
       </c>
       <c r="D12" t="n">
-        <v>0.02929411649919056</v>
+        <v>0.01576679948766933</v>
       </c>
       <c r="E12" t="n">
-        <v>0.01983911448691409</v>
+        <v>0.5246646221416602</v>
       </c>
       <c r="F12" t="n">
-        <v>0.244123364415621</v>
+        <v>0.01575884546933892</v>
       </c>
       <c r="G12" t="n">
-        <v>0.4281908608417892</v>
+        <v>1.324940999469891</v>
+      </c>
+      <c r="H12" t="n">
+        <v>1.326442437152609</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0.6771162414819953</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>0.7782743987475337</v>
+        <v>0.790713182586815</v>
       </c>
       <c r="B13" t="n">
-        <v>0.4805249558195163</v>
+        <v>0.5672688535435287</v>
       </c>
       <c r="C13" t="n">
-        <v>0.2413426129020881</v>
+        <v>0.5283476045892698</v>
       </c>
       <c r="D13" t="n">
-        <v>0.03729729824984199</v>
+        <v>0.02063479931037225</v>
       </c>
       <c r="E13" t="n">
-        <v>0.01567004488106863</v>
+        <v>0.4915767650761178</v>
       </c>
       <c r="F13" t="n">
-        <v>0.2656256921966479</v>
+        <v>0.02062475596249286</v>
       </c>
       <c r="G13" t="n">
-        <v>0.4281908608417892</v>
+        <v>1.324940999469891</v>
+      </c>
+      <c r="H13" t="n">
+        <v>1.326442437152609</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0.6944769583086537</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>0.7581175259064004</v>
+        <v>0.7716871082765254</v>
       </c>
       <c r="B14" t="n">
-        <v>0.4601136202342067</v>
+        <v>0.554122893155431</v>
       </c>
       <c r="C14" t="n">
-        <v>0.2079736103157957</v>
+        <v>0.4941456993417321</v>
       </c>
       <c r="D14" t="n">
-        <v>0.04633919195344161</v>
+        <v>0.02633787749557635</v>
       </c>
       <c r="E14" t="n">
-        <v>0.01225097136375391</v>
+        <v>0.4597761229798067</v>
       </c>
       <c r="F14" t="n">
-        <v>0.2879064229636837</v>
+        <v>0.02632552591998022</v>
       </c>
       <c r="G14" t="n">
-        <v>0.4281908608417892</v>
+        <v>1.324940999469891</v>
+      </c>
+      <c r="H14" t="n">
+        <v>1.326442437152609</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0.7118376751353124</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>0.737960653065267</v>
+        <v>0.7526610339662358</v>
       </c>
       <c r="B15" t="n">
-        <v>0.4397022846488972</v>
+        <v>0.5409769327673332</v>
       </c>
       <c r="C15" t="n">
-        <v>0.1785010681080861</v>
+        <v>0.4613111004256334</v>
       </c>
       <c r="D15" t="n">
-        <v>0.05640791144820253</v>
+        <v>0.03291679673158557</v>
       </c>
       <c r="E15" t="n">
-        <v>0.009471513345101433</v>
+        <v>0.4292453809617937</v>
       </c>
       <c r="F15" t="n">
-        <v>0.310960104210428</v>
+        <v>0.03290194368176615</v>
       </c>
       <c r="G15" t="n">
-        <v>0.4281908608417892</v>
+        <v>1.324940999469891</v>
+      </c>
+      <c r="H15" t="n">
+        <v>1.326442437152609</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0.7291983919619709</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>0.7178037802241337</v>
+        <v>0.7336349596559464</v>
       </c>
       <c r="B16" t="n">
-        <v>0.4192909490635875</v>
+        <v>0.5278309723792354</v>
       </c>
       <c r="C16" t="n">
-        <v>0.1525581088681557</v>
+        <v>0.4298248519592768</v>
       </c>
       <c r="D16" t="n">
-        <v>0.06748578623862314</v>
+        <v>0.04040705417922946</v>
       </c>
       <c r="E16" t="n">
-        <v>0.007233615595781414</v>
+        <v>0.3999669921760214</v>
       </c>
       <c r="F16" t="n">
-        <v>0.3347836602741067</v>
+        <v>0.04038953689124485</v>
       </c>
       <c r="G16" t="n">
-        <v>0.4281908608417892</v>
+        <v>1.324940999469891</v>
+      </c>
+      <c r="H16" t="n">
+        <v>1.326442437152609</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0.7465591087886293</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>0.6976469073830005</v>
+        <v>0.7146088853456568</v>
       </c>
       <c r="B17" t="n">
-        <v>0.3988796134782782</v>
+        <v>0.5146850119911376</v>
       </c>
       <c r="C17" t="n">
-        <v>0.1298036602693659</v>
+        <v>0.3996677379280049</v>
       </c>
       <c r="D17" t="n">
-        <v>0.07955108044134689</v>
+        <v>0.04883903068321427</v>
       </c>
       <c r="E17" t="n">
-        <v>0.005450648752145936</v>
+        <v>0.3719231681351299</v>
       </c>
       <c r="F17" t="n">
-        <v>0.3593761504991621</v>
+        <v>0.04881872105428035</v>
       </c>
       <c r="G17" t="n">
-        <v>0.4281908608417892</v>
+        <v>1.324940999469891</v>
+      </c>
+      <c r="H17" t="n">
+        <v>1.326442437152609</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0.7639198256152878</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>0.6774900345418671</v>
+        <v>0.6955828110353672</v>
       </c>
       <c r="B18" t="n">
-        <v>0.3784682778929685</v>
+        <v>0.5015390516030398</v>
       </c>
       <c r="C18" t="n">
-        <v>0.1099212884170607</v>
+        <v>0.3708202710214908</v>
       </c>
       <c r="D18" t="n">
-        <v>0.09257947026214437</v>
+        <v>0.05823814346180698</v>
       </c>
       <c r="E18" t="n">
-        <v>0.004046537412711159</v>
+        <v>0.3450958683291098</v>
       </c>
       <c r="F18" t="n">
-        <v>0.384738497378204</v>
+        <v>0.0582149515733069</v>
       </c>
       <c r="G18" t="n">
-        <v>0.4281908608417892</v>
+        <v>1.324940999469891</v>
+      </c>
+      <c r="H18" t="n">
+        <v>1.326442437152609</v>
+      </c>
+      <c r="I18" t="n">
+        <v>0.7812805424419464</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>0.6573331617007339</v>
+        <v>0.6765567367250777</v>
       </c>
       <c r="B19" t="n">
-        <v>0.3580569423076589</v>
+        <v>0.4883930912149419</v>
       </c>
       <c r="C19" t="n">
-        <v>0.09261805297107084</v>
+        <v>0.3432626806467101</v>
       </c>
       <c r="D19" t="n">
-        <v>0.1065452982323218</v>
+        <v>0.06862500250349504</v>
       </c>
       <c r="E19" t="n">
-        <v>0.002954916261760966</v>
+        <v>0.3194667890767912</v>
       </c>
       <c r="F19" t="n">
-        <v>0.4108731952492189</v>
+        <v>0.06859887948517529</v>
       </c>
       <c r="G19" t="n">
-        <v>0.4281908608417892</v>
+        <v>1.324940999469891</v>
+      </c>
+      <c r="H19" t="n">
+        <v>1.326442437152609</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0.798641259268605</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>0.6371762888596005</v>
+        <v>0.6575306624147881</v>
       </c>
       <c r="B20" t="n">
-        <v>0.3376456067223494</v>
+        <v>0.4752471308268441</v>
       </c>
       <c r="C20" t="n">
-        <v>0.07762338424813951</v>
+        <v>0.3169749000286413</v>
       </c>
       <c r="D20" t="n">
-        <v>0.1214226219184441</v>
+        <v>0.08001557092346458</v>
       </c>
       <c r="E20" t="n">
-        <v>0.002118314685086462</v>
+        <v>0.2950173515282731</v>
       </c>
       <c r="F20" t="n">
-        <v>0.4377840093786793</v>
+        <v>0.07998651115565342</v>
       </c>
       <c r="G20" t="n">
-        <v>0.4281908608417892</v>
+        <v>1.324940999469891</v>
+      </c>
+      <c r="H20" t="n">
+        <v>1.326442437152609</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0.8160019760952635</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>0.6170194160184672</v>
+        <v>0.6385045881044986</v>
       </c>
       <c r="B21" t="n">
-        <v>0.3172342711370399</v>
+        <v>0.4621011704387463</v>
       </c>
       <c r="C21" t="n">
-        <v>0.06468798251755406</v>
+        <v>0.2919365522982995</v>
       </c>
       <c r="D21" t="n">
-        <v>0.1371860742979586</v>
+        <v>0.09242132956046671</v>
       </c>
       <c r="E21" t="n">
-        <v>0.001487370375735103</v>
+        <v>0.2717286887248036</v>
       </c>
       <c r="F21" t="n">
-        <v>0.46547567448883</v>
+        <v>0.09238937221124191</v>
       </c>
       <c r="G21" t="n">
-        <v>0.4281908608417892</v>
+        <v>1.324940999469891</v>
+      </c>
+      <c r="H21" t="n">
+        <v>1.326442437152609</v>
+      </c>
+      <c r="I21" t="n">
+        <v>0.833362692921922</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>0.5968625431773339</v>
+        <v>0.619478513794209</v>
       </c>
       <c r="B22" t="n">
-        <v>0.2968229355517304</v>
+        <v>0.4489552100506485</v>
       </c>
       <c r="C22" t="n">
-        <v>0.05358273971187622</v>
+        <v>0.2681269354530146</v>
       </c>
       <c r="D22" t="n">
-        <v>0.153811552464769</v>
+        <v>0.1058494461265643</v>
       </c>
       <c r="E22" t="n">
-        <v>0.001020072464805341</v>
+        <v>0.2495816316089391</v>
       </c>
       <c r="F22" t="n">
-        <v>0.4939536009916389</v>
+        <v>0.1058146760209209</v>
       </c>
       <c r="G22" t="n">
-        <v>0.4281908608417892</v>
+        <v>1.324940999469891</v>
+      </c>
+      <c r="H22" t="n">
+        <v>1.326442437152609</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0.8507234097485805</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>0.5767056703362006</v>
+        <v>0.6004524394839195</v>
       </c>
       <c r="B23" t="n">
-        <v>0.2764115999664207</v>
+        <v>0.4358092496625507</v>
       </c>
       <c r="C23" t="n">
-        <v>0.04409768378391239</v>
+        <v>0.2455250060564758</v>
       </c>
       <c r="D23" t="n">
-        <v>0.1712767507926231</v>
+        <v>0.1203029492591774</v>
       </c>
       <c r="E23" t="n">
-        <v>0.0006810347546459522</v>
+        <v>0.2285566938616033</v>
       </c>
       <c r="F23" t="n">
-        <v>0.523223596368728</v>
+        <v>0.1202654970774098</v>
       </c>
       <c r="G23" t="n">
-        <v>0.4281908608417892</v>
+        <v>1.324940999469891</v>
+      </c>
+      <c r="H23" t="n">
+        <v>1.326442437152609</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0.868084126575239</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>0.5565487974950674</v>
+        <v>0.58142636517363</v>
       </c>
       <c r="B24" t="n">
-        <v>0.2560002643811113</v>
+        <v>0.4226632892744529</v>
       </c>
       <c r="C24" t="n">
-        <v>0.03604094595100447</v>
+        <v>0.2241093615253317</v>
       </c>
       <c r="D24" t="n">
-        <v>0.1895615541399104</v>
+        <v>0.135780907867787</v>
       </c>
       <c r="E24" t="n">
-        <v>0.0004407996803942217</v>
+        <v>0.2086340554233578</v>
       </c>
       <c r="F24" t="n">
-        <v>0.5532916082824997</v>
+        <v>0.1357409496705115</v>
       </c>
       <c r="G24" t="n">
-        <v>0.4281908608417892</v>
+        <v>1.324940999469891</v>
+      </c>
+      <c r="H24" t="n">
+        <v>1.326442437152609</v>
+      </c>
+      <c r="I24" t="n">
+        <v>0.8854448434018976</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>0.5363919246539339</v>
+        <v>0.5624002908633404</v>
       </c>
       <c r="B25" t="n">
-        <v>0.2355889287958017</v>
+        <v>0.4095173288863551</v>
       </c>
       <c r="C25" t="n">
-        <v>0.02923775107843706</v>
+        <v>0.2038582208243021</v>
       </c>
       <c r="D25" t="n">
-        <v>0.2086483061266368</v>
+        <v>0.1522786162178659</v>
       </c>
       <c r="E25" t="n">
-        <v>0.0002751736820269248</v>
+        <v>0.1897935445340533</v>
       </c>
       <c r="F25" t="n">
-        <v>0.5841634951143342</v>
+        <v>0.1522363722953838</v>
       </c>
       <c r="G25" t="n">
-        <v>0.4281908608417892</v>
+        <v>1.324940999469891</v>
+      </c>
+      <c r="H25" t="n">
+        <v>1.326442437152609</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0.9028055602285561</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>0.5162350518128007</v>
+        <v>0.5433742165530508</v>
       </c>
       <c r="B26" t="n">
-        <v>0.2151775932104923</v>
+        <v>0.3963713684982573</v>
       </c>
       <c r="C26" t="n">
-        <v>0.02352943146533855</v>
+        <v>0.1847494033618142</v>
       </c>
       <c r="D26" t="n">
-        <v>0.2285219669524168</v>
+        <v>0.1697877852536637</v>
       </c>
       <c r="E26" t="n">
-        <v>0.0001645947348628614</v>
+        <v>0.1720146180971328</v>
       </c>
       <c r="F26" t="n">
-        <v>0.6158448286957182</v>
+        <v>0.1697435182977159</v>
       </c>
       <c r="G26" t="n">
-        <v>0.4281908608417892</v>
+        <v>1.324940999469891</v>
+      </c>
+      <c r="H26" t="n">
+        <v>1.326442437152609</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0.9201662770552146</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>0.4960781789716674</v>
+        <v>0.5243481422427613</v>
       </c>
       <c r="B27" t="n">
-        <v>0.1947662576251827</v>
+        <v>0.3832254081101595</v>
       </c>
       <c r="C27" t="n">
-        <v>0.0187724643089974</v>
+        <v>0.1667603058418262</v>
       </c>
       <c r="D27" t="n">
-        <v>0.2491701746527112</v>
+        <v>0.1882967407313983</v>
       </c>
       <c r="E27" t="n">
-        <v>9.353286424013928e-05</v>
+        <v>0.1552763401409832</v>
       </c>
       <c r="F27" t="n">
-        <v>0.6483407330207183</v>
+        <v>0.1882507533278059</v>
       </c>
       <c r="G27" t="n">
-        <v>0.4281908608417892</v>
+        <v>1.324940999469891</v>
+      </c>
+      <c r="H27" t="n">
+        <v>1.326442437152609</v>
+      </c>
+      <c r="I27" t="n">
+        <v>0.9375269938818731</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>0.4759213061305341</v>
+        <v>0.5053220679324717</v>
       </c>
       <c r="B28" t="n">
-        <v>0.1743549220398731</v>
+        <v>0.3700794477220617</v>
       </c>
       <c r="C28" t="n">
-        <v>0.01483753313715347</v>
+        <v>0.1498678767830744</v>
       </c>
       <c r="D28" t="n">
-        <v>0.2705832231085786</v>
+        <v>0.2077906288177347</v>
       </c>
       <c r="E28" t="n">
-        <v>4.992456331749928e-05</v>
+        <v>0.1395573581083356</v>
       </c>
       <c r="F28" t="n">
-        <v>0.6816557616944625</v>
+        <v>0.207743260258987</v>
       </c>
       <c r="G28" t="n">
-        <v>0.4281908608417892</v>
+        <v>1.324940999469891</v>
+      </c>
+      <c r="H28" t="n">
+        <v>1.326442437152609</v>
+      </c>
+      <c r="I28" t="n">
+        <v>0.9619090839645545</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>0.4557644332894007</v>
+        <v>0.4862959936221822</v>
       </c>
       <c r="B29" t="n">
-        <v>0.1539435864545636</v>
+        <v>0.3569334873339639</v>
       </c>
       <c r="C29" t="n">
-        <v>0.01160861351268199</v>
+        <v>0.1340485883622508</v>
       </c>
       <c r="D29" t="n">
-        <v>0.2927539695321817</v>
+        <v>0.2282516299085205</v>
       </c>
       <c r="E29" t="n">
-        <v>2.464214642929433e-05</v>
+        <v>0.1248358766537043</v>
       </c>
       <c r="F29" t="n">
-        <v>0.715793815770679</v>
+        <v>0.2282032523260915</v>
       </c>
       <c r="G29" t="n">
-        <v>0.4281908608417892</v>
+        <v>1.324940999469891</v>
+      </c>
+      <c r="H29" t="n">
+        <v>1.326442437152609</v>
+      </c>
+      <c r="I29" t="n">
+        <v>0.9909420180601785</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>0.4356075604482674</v>
+        <v>0.4672699193118927</v>
       </c>
       <c r="B30" t="n">
-        <v>0.133532250869254</v>
+        <v>0.3437875269458661</v>
       </c>
       <c r="C30" t="n">
-        <v>0.008982083331343125</v>
+        <v>0.1192784051696375</v>
       </c>
       <c r="D30" t="n">
-        <v>0.3156776835453444</v>
+        <v>0.2496591815438866</v>
       </c>
       <c r="E30" t="n">
-        <v>1.099921113735351e-05</v>
+        <v>0.1110896285654976</v>
       </c>
       <c r="F30" t="n">
-        <v>0.7507581024459898</v>
+        <v>0.249610195360973</v>
       </c>
       <c r="G30" t="n">
-        <v>0.4281908608417892</v>
+        <v>1.324940999469891</v>
+      </c>
+      <c r="H30" t="n">
+        <v>1.326442437152609</v>
+      </c>
+      <c r="I30" t="n">
+        <v>1.019974952155803</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>0.4154506876071342</v>
+        <v>0.4482438450016031</v>
       </c>
       <c r="B31" t="n">
-        <v>0.1131209152839446</v>
+        <v>0.3306415665577683</v>
       </c>
       <c r="C31" t="n">
-        <v>0.006865858051108059</v>
+        <v>0.1055327493805253</v>
       </c>
       <c r="D31" t="n">
-        <v>0.3393518493506924</v>
+        <v>0.2719902114437605</v>
       </c>
       <c r="E31" t="n">
-        <v>4.293560562427518e-06</v>
+        <v>0.09829584235002281</v>
       </c>
       <c r="F31" t="n">
-        <v>0.7865511337873601</v>
+        <v>0.271941040150302</v>
       </c>
       <c r="G31" t="n">
-        <v>0.4281908608417892</v>
+        <v>1.324940999469891</v>
+      </c>
+      <c r="H31" t="n">
+        <v>1.326442437152609</v>
+      </c>
+      <c r="I31" t="n">
+        <v>1.049007886251427</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>0.3952938147660009</v>
+        <v>0.4292177706913136</v>
       </c>
       <c r="B32" t="n">
-        <v>0.09270957969863503</v>
+        <v>0.3174956061696705</v>
       </c>
       <c r="C32" t="n">
-        <v>0.005178551211228538</v>
+        <v>0.09278646173792347</v>
       </c>
       <c r="D32" t="n">
-        <v>0.3637759318632392</v>
+        <v>0.2952193818702042</v>
       </c>
       <c r="E32" t="n">
-        <v>1.389170240123803e-06</v>
+        <v>0.08643120591409863</v>
       </c>
       <c r="F32" t="n">
-        <v>0.8231747632391554</v>
+        <v>0.2951704661235382</v>
       </c>
       <c r="G32" t="n">
-        <v>0.4281908608417892</v>
+        <v>1.324940999469891</v>
+      </c>
+      <c r="H32" t="n">
+        <v>1.326442437152609</v>
+      </c>
+      <c r="I32" t="n">
+        <v>1.078040820347051</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>0.3751369419248676</v>
+        <v>0.410191696381024</v>
       </c>
       <c r="B33" t="n">
-        <v>0.07229824411332544</v>
+        <v>0.3043496457815726</v>
       </c>
       <c r="C33" t="n">
-        <v>0.003848660620966217</v>
+        <v>0.08101375760413865</v>
       </c>
       <c r="D33" t="n">
-        <v>0.3889511170235091</v>
+        <v>0.3193193467501468</v>
       </c>
       <c r="E33" t="n">
-        <v>3.390980704241256e-07</v>
+        <v>0.07547182565441177</v>
       </c>
       <c r="F33" t="n">
-        <v>0.8606302560370611</v>
+        <v>0.3192711378065695</v>
       </c>
       <c r="G33" t="n">
-        <v>0.4281908608417892</v>
+        <v>1.324940999469891</v>
+      </c>
+      <c r="H33" t="n">
+        <v>1.326442437152609</v>
+      </c>
+      <c r="I33" t="n">
+        <v>1.107073754442675</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>0.3549800690837343</v>
+        <v>0.3911656220707345</v>
       </c>
       <c r="B34" t="n">
-        <v>0.05188690852801591</v>
+        <v>0.2912036853934749</v>
       </c>
       <c r="C34" t="n">
-        <v>0.002813780622075832</v>
+        <v>0.07018817716031404</v>
       </c>
       <c r="D34" t="n">
-        <v>0.4148800358500259</v>
+        <v>0.3442610232782723</v>
       </c>
       <c r="E34" t="n">
-        <v>5.168105391359344e-08</v>
+        <v>0.06539318009534834</v>
       </c>
       <c r="F34" t="n">
-        <v>0.8989183877635109</v>
+        <v>0.3442139757632708</v>
       </c>
       <c r="G34" t="n">
-        <v>0.4281908608417892</v>
+        <v>1.324940999469891</v>
+      </c>
+      <c r="H34" t="n">
+        <v>1.326442437152609</v>
+      </c>
+      <c r="I34" t="n">
+        <v>1.136106688538299</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>0.3348231962426009</v>
+        <v>0.3721395477604449</v>
       </c>
       <c r="B35" t="n">
-        <v>0.03147557294270633</v>
+        <v>0.2780577250053771</v>
       </c>
       <c r="C35" t="n">
-        <v>0.002019840856150066</v>
+        <v>0.06028252859903253</v>
       </c>
       <c r="D35" t="n">
-        <v>0.441566481107607</v>
+        <v>0.370013880084949</v>
       </c>
       <c r="E35" t="n">
-        <v>3.035899904011631e-09</v>
+        <v>0.0561700669988674</v>
       </c>
       <c r="F35" t="n">
-        <v>0.9380395629588648</v>
+        <v>0.3699684441131177</v>
       </c>
       <c r="G35" t="n">
-        <v>0.4281908608417892</v>
+        <v>1.324940999469891</v>
+      </c>
+      <c r="H35" t="n">
+        <v>1.326442437152609</v>
+      </c>
+      <c r="I35" t="n">
+        <v>1.165139622633923</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>0.3146663234014676</v>
+        <v>0.3531134734501553</v>
       </c>
       <c r="B36" t="n">
-        <v>0.0110642373573968</v>
+        <v>0.2649117646172792</v>
       </c>
       <c r="C36" t="n">
-        <v>0.001420371998284688</v>
+        <v>0.05126882284397805</v>
       </c>
       <c r="D36" t="n">
-        <v>0.4690151247665134</v>
+        <v>0.3965462445264322</v>
       </c>
       <c r="E36" t="n">
-        <v>8.080569332003495e-12</v>
+        <v>0.04777654257988546</v>
       </c>
       <c r="F36" t="n">
-        <v>0.9779939426256045</v>
+        <v>0.3965028571863823</v>
       </c>
       <c r="G36" t="n">
-        <v>0.4281908608417892</v>
+        <v>1.324940999469891</v>
+      </c>
+      <c r="H36" t="n">
+        <v>1.326442437152609</v>
+      </c>
+      <c r="I36" t="n">
+        <v>1.194172556729547</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>0.2945094505603343</v>
+        <v>0.3340873991398658</v>
       </c>
       <c r="B37" t="n">
-        <v>-0.009347098227912779</v>
+        <v>0.2517658042291814</v>
       </c>
       <c r="C37" t="n">
-        <v>0.0009757989528342108</v>
+        <v>0.04311819791039382</v>
       </c>
       <c r="D37" t="n">
-        <v>0.4972312437038763</v>
-      </c>
-      <c r="E37" t="inlineStr"/>
-      <c r="F37" t="inlineStr"/>
+        <v>0.4238256322751889</v>
+      </c>
+      <c r="E37" t="n">
+        <v>0.04018585106873183</v>
+      </c>
+      <c r="F37" t="n">
+        <v>0.4237847085004835</v>
+      </c>
       <c r="G37" t="n">
-        <v>0.4281908608417892</v>
+        <v>1.324940999469891</v>
+      </c>
+      <c r="H37" t="n">
+        <v>1.326442437152609</v>
+      </c>
+      <c r="I37" t="n">
+        <v>1.263400197993219</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>0.2743525777192011</v>
+        <v>0.3150613248295763</v>
       </c>
       <c r="B38" t="n">
-        <v>-0.02975843381322219</v>
+        <v>0.2386198438410836</v>
       </c>
       <c r="C38" t="n">
-        <v>0.0006527620460846896</v>
+        <v>0.03580083044226109</v>
       </c>
       <c r="D38" t="n">
-        <v>0.5262204603502816</v>
-      </c>
-      <c r="E38" t="inlineStr"/>
-      <c r="F38" t="inlineStr"/>
+        <v>0.4518191032178939</v>
+      </c>
+      <c r="E38" t="n">
+        <v>0.03337034232333852</v>
+      </c>
+      <c r="F38" t="n">
+        <v>0.4517810260727922</v>
+      </c>
       <c r="G38" t="n">
-        <v>0.4281908608417892</v>
+        <v>1.324940999469891</v>
+      </c>
+      <c r="H38" t="n">
+        <v>1.326442437152609</v>
+      </c>
+      <c r="I38" t="n">
+        <v>1.370899910351735</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>0.2541957048780678</v>
+        <v>0.2960352505192867</v>
       </c>
       <c r="B39" t="n">
-        <v>-0.05016976939853177</v>
+        <v>0.2254738834529858</v>
       </c>
       <c r="C39" t="n">
-        <v>0.0004234667954708306</v>
+        <v>0.02928583115168203</v>
       </c>
       <c r="D39" t="n">
-        <v>0.5559885042077353</v>
-      </c>
-      <c r="E39" t="inlineStr"/>
-      <c r="F39" t="inlineStr"/>
+        <v>0.4804936487998708</v>
+      </c>
+      <c r="E39" t="n">
+        <v>0.02730137443789641</v>
+      </c>
+      <c r="F39" t="n">
+        <v>0.4804587592193095</v>
+      </c>
       <c r="G39" t="n">
-        <v>0.4281908608417892</v>
+        <v>1.324940999469891</v>
+      </c>
+      <c r="H39" t="n">
+        <v>1.326442437152609</v>
+      </c>
+      <c r="I39" t="n">
+        <v>1.478399622710251</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>0.2340388320369344</v>
+        <v>0.2770091762089972</v>
       </c>
       <c r="B40" t="n">
-        <v>-0.07058110498384133</v>
+        <v>0.212327923064888</v>
       </c>
       <c r="C40" t="n">
-        <v>0.000265062886801373</v>
+        <v>0.02354111972318997</v>
       </c>
       <c r="D40" t="n">
-        <v>0.5865409993565074</v>
-      </c>
-      <c r="E40" t="inlineStr"/>
-      <c r="F40" t="inlineStr"/>
+        <v>0.509816617531862</v>
+      </c>
+      <c r="E40" t="n">
+        <v>0.02194919721002803</v>
+      </c>
+      <c r="F40" t="n">
+        <v>0.5097852035700032</v>
+      </c>
       <c r="G40" t="n">
-        <v>0.4281908608417892</v>
+        <v>1.324940999469891</v>
+      </c>
+      <c r="H40" t="n">
+        <v>1.326442437152609</v>
+      </c>
+      <c r="I40" t="n">
+        <v>1.585899335068767</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>0.2138819591958011</v>
+        <v>0.2579831018987077</v>
       </c>
       <c r="B41" t="n">
-        <v>-0.09099244056915089</v>
+        <v>0.1991819626767902</v>
       </c>
       <c r="C41" t="n">
-        <v>0.0001590530515284983</v>
+        <v>0.01853327303358583</v>
       </c>
       <c r="D41" t="n">
-        <v>0.6178832822226867</v>
-      </c>
-      <c r="E41" t="inlineStr"/>
-      <c r="F41" t="inlineStr"/>
+        <v>0.5397561876308398</v>
+      </c>
+      <c r="E41" t="n">
+        <v>0.01728281073117659</v>
+      </c>
+      <c r="F41" t="n">
+        <v>0.53972847329383</v>
+      </c>
       <c r="G41" t="n">
-        <v>0.4281908608417892</v>
+        <v>1.324940999469891</v>
+      </c>
+      <c r="H41" t="n">
+        <v>1.326442437152609</v>
+      </c>
+      <c r="I41" t="n">
+        <v>1.744530092422042</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>0.1937250863546678</v>
+        <v>0.2389570275884181</v>
       </c>
       <c r="B42" t="n">
-        <v>-0.1114037761544604</v>
+        <v>0.1860360022886924</v>
       </c>
       <c r="C42" t="n">
-        <v>9.073260767967004e-05</v>
+        <v>0.01422733793981221</v>
       </c>
       <c r="D42" t="n">
-        <v>0.6500202529894733</v>
-      </c>
-      <c r="E42" t="inlineStr"/>
-      <c r="F42" t="inlineStr"/>
+        <v>0.5702818990906089</v>
+      </c>
+      <c r="E42" t="n">
+        <v>0.01326979094066691</v>
+      </c>
+      <c r="F42" t="n">
+        <v>0.5702580328604708</v>
+      </c>
       <c r="G42" t="n">
-        <v>0.4281908608417892</v>
+        <v>1.324940999469891</v>
+      </c>
+      <c r="H42" t="n">
+        <v>1.326442437152609</v>
+      </c>
+      <c r="I42" t="n">
+        <v>1.92498332064474</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>0.1735682135135345</v>
+        <v>0.2199309532781285</v>
       </c>
       <c r="B43" t="n">
-        <v>-0.13181511173977</v>
+        <v>0.1728900419005946</v>
       </c>
       <c r="C43" t="n">
-        <v>4.866051377925475e-05</v>
+        <v>0.01058659580309377</v>
       </c>
       <c r="D43" t="n">
-        <v>0.6829562630953463</v>
-      </c>
-      <c r="E43" t="inlineStr"/>
-      <c r="F43" t="inlineStr"/>
+        <v>0.6013652625501941</v>
+      </c>
+      <c r="E43" t="n">
+        <v>0.009876070172348525</v>
+      </c>
+      <c r="F43" t="n">
+        <v>0.6013453057541087</v>
+      </c>
       <c r="G43" t="n">
-        <v>0.4281908608417892</v>
+        <v>1.324940999469891</v>
+      </c>
+      <c r="H43" t="n">
+        <v>1.326442437152609</v>
+      </c>
+      <c r="I43" t="n">
+        <v>2.173343643012753</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>0.1534113406724013</v>
+        <v>0.2009048789678389</v>
       </c>
       <c r="B44" t="n">
-        <v>-0.1522264473250794</v>
+        <v>0.1597440815124967</v>
       </c>
       <c r="C44" t="n">
-        <v>2.41628892972561e-05</v>
+        <v>0.007572259220766451</v>
       </c>
       <c r="D44" t="n">
-        <v>0.7166950402607343</v>
-      </c>
-      <c r="E44" t="inlineStr"/>
-      <c r="F44" t="inlineStr"/>
+        <v>0.632980470397412</v>
+      </c>
+      <c r="E44" t="n">
+        <v>0.007065654472129163</v>
+      </c>
+      <c r="F44" t="n">
+        <v>0.632964385650995</v>
+      </c>
       <c r="G44" t="n">
-        <v>0.4281908608417892</v>
+        <v>1.324940999469891</v>
+      </c>
+      <c r="H44" t="n">
+        <v>1.326442437152609</v>
+      </c>
+      <c r="I44" t="n">
+        <v>2.498638344226571</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>0.1332544678312679</v>
+        <v>0.1818788046575495</v>
       </c>
       <c r="B45" t="n">
-        <v>-0.172637782910389</v>
+        <v>0.146598121124399</v>
       </c>
       <c r="C45" t="n">
-        <v>1.087008420196018e-05</v>
+        <v>0.005143069880540567</v>
       </c>
       <c r="D45" t="n">
-        <v>0.7512396514074254</v>
-      </c>
-      <c r="E45" t="inlineStr"/>
-      <c r="F45" t="inlineStr"/>
+        <v>0.6651052490498555</v>
+      </c>
+      <c r="E45" t="n">
+        <v>0.004800248676143893</v>
+      </c>
+      <c r="F45" t="n">
+        <v>0.6650928891253033</v>
+      </c>
       <c r="G45" t="n">
-        <v>0.4281908608417892</v>
+        <v>1.324940999469891</v>
+      </c>
+      <c r="H45" t="n">
+        <v>1.326442437152609</v>
+      </c>
+      <c r="I45" t="n">
+        <v>2.961258670134706</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>0.1130975949901346</v>
+        <v>0.1628527303472599</v>
       </c>
       <c r="B46" t="n">
-        <v>-0.1930491184956986</v>
+        <v>0.1334521607363012</v>
       </c>
       <c r="C46" t="n">
-        <v>4.288543551612934e-06</v>
+        <v>0.003254745198563215</v>
       </c>
       <c r="D46" t="n">
-        <v>0.7865925026616115</v>
-      </c>
-      <c r="E46" t="inlineStr"/>
-      <c r="F46" t="inlineStr"/>
+        <v>0.6977219154282474</v>
+      </c>
+      <c r="E46" t="n">
+        <v>0.003038740394594151</v>
+      </c>
+      <c r="F46" t="n">
+        <v>0.6977130131112964</v>
+      </c>
       <c r="G46" t="n">
-        <v>0.4281908608417892</v>
+        <v>1.324940999469891</v>
+      </c>
+      <c r="H46" t="n">
+        <v>1.326442437152609</v>
+      </c>
+      <c r="I46" t="n">
+        <v>3.666721175649712</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>0.09294072214900129</v>
+        <v>0.1438266560369703</v>
       </c>
       <c r="B47" t="n">
-        <v>-0.2134604540810081</v>
+        <v>0.1203062003482034</v>
       </c>
       <c r="C47" t="n">
-        <v>1.408925605876066e-06</v>
+        <v>0.001859178991039892</v>
       </c>
       <c r="D47" t="n">
-        <v>0.8227553743328279</v>
-      </c>
-      <c r="E47" t="inlineStr"/>
-      <c r="F47" t="inlineStr"/>
+        <v>0.7308187471660692</v>
+      </c>
+      <c r="E47" t="n">
+        <v>0.001736454436686341</v>
+      </c>
+      <c r="F47" t="n">
+        <v>0.7308129070661167</v>
+      </c>
       <c r="G47" t="n">
-        <v>0.4281908608417892</v>
+        <v>1.324940999469891</v>
+      </c>
+      <c r="H47" t="n">
+        <v>1.326442437152609</v>
+      </c>
+      <c r="I47" t="n">
+        <v>4.775565881114312</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>0.07278384930786796</v>
+        <v>0.1248005817266808</v>
       </c>
       <c r="B48" t="n">
-        <v>-0.2338717896663177</v>
+        <v>0.1071602399601056</v>
       </c>
       <c r="C48" t="n">
-        <v>3.522182942977173e-07</v>
+        <v>0.0009032070033841056</v>
       </c>
       <c r="D48" t="n">
-        <v>0.8597294872917742</v>
-      </c>
-      <c r="E48" t="inlineStr"/>
-      <c r="F48" t="inlineStr"/>
+        <v>0.7643918763452143</v>
+      </c>
+      <c r="E48" t="n">
+        <v>0.0008440010009472871</v>
+      </c>
+      <c r="F48" t="n">
+        <v>0.7643885704567002</v>
+      </c>
       <c r="G48" t="n">
-        <v>0.4281908608417892</v>
+        <v>1.324940999469891</v>
+      </c>
+      <c r="H48" t="n">
+        <v>1.326442437152609</v>
+      </c>
+      <c r="I48" t="n">
+        <v>6.503169449597991</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>0.05262697646673464</v>
+        <v>0.1057745074163913</v>
       </c>
       <c r="B49" t="n">
-        <v>-0.2542831252516272</v>
+        <v>0.09401427957200781</v>
       </c>
       <c r="C49" t="n">
-        <v>5.600288584898896e-08</v>
+        <v>0.0003265021717098127</v>
       </c>
       <c r="D49" t="n">
-        <v>0.8975155954550946</v>
-      </c>
-      <c r="E49" t="inlineStr"/>
-      <c r="F49" t="inlineStr"/>
+        <v>0.7984481688594505</v>
+      </c>
+      <c r="E49" t="n">
+        <v>0.0003053111164732278</v>
+      </c>
+      <c r="F49" t="n">
+        <v>0.7984467396884906</v>
+      </c>
       <c r="G49" t="n">
-        <v>0.4281908608417892</v>
+        <v>1.324940999469891</v>
+      </c>
+      <c r="H49" t="n">
+        <v>1.326442437152609</v>
+      </c>
+      <c r="I49" t="n">
+        <v>8.684446505875028</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>0.03247010362560143</v>
+        <v>0.0867484331061017</v>
       </c>
       <c r="B50" t="n">
-        <v>-0.2746944608369367</v>
+        <v>0.08086831918390991</v>
       </c>
       <c r="C50" t="n">
-        <v>3.621598672507741e-09</v>
+        <v>5.73391097064826e-05</v>
       </c>
       <c r="D50" t="n">
-        <v>0.9361140969880247</v>
-      </c>
-      <c r="E50" t="inlineStr"/>
-      <c r="F50" t="inlineStr"/>
+        <v>0.8330103674787839</v>
+      </c>
+      <c r="E50" t="n">
+        <v>5.368115389195581e-05</v>
+      </c>
+      <c r="F50" t="n">
+        <v>0.8330100487831101</v>
+      </c>
       <c r="G50" t="n">
-        <v>0.4281908608417892</v>
+        <v>1.324940999469891</v>
+      </c>
+      <c r="H50" t="n">
+        <v>1.326442437152609</v>
+      </c>
+      <c r="I50" t="n">
+        <v>13.26404993815703</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>0.01231323078446811</v>
+        <v>0.06772235879581212</v>
       </c>
       <c r="B51" t="n">
-        <v>-0.2951057964222462</v>
+        <v>0.06772235879581212</v>
       </c>
       <c r="C51" t="n">
-        <v>1.482020879021936e-11</v>
+        <v>0</v>
       </c>
       <c r="D51" t="n">
-        <v>0.9755251540689578</v>
-      </c>
-      <c r="E51" t="inlineStr"/>
-      <c r="F51" t="inlineStr"/>
+        <v>0.8681304602567628</v>
+      </c>
+      <c r="E51" t="n">
+        <v>0</v>
+      </c>
+      <c r="F51" t="n">
+        <v>0.8681304602567628</v>
+      </c>
       <c r="G51" t="n">
-        <v>0.4281908608417892</v>
+        <v>1.324940999469891</v>
+      </c>
+      <c r="H51" t="n">
+        <v>1.326442437152609</v>
+      </c>
+      <c r="I51" t="n">
+        <v>28.26388888888889</v>
       </c>
     </row>
   </sheetData>
@@ -3980,27 +4610,10 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <Project_x0020_Type xmlns="cbc615f2-4093-4ebd-a034-1df8eb5aaad9">Enter Choice #1</Project_x0020_Type>
-    <TaxCatchAll xmlns="1ad2a7fa-3f2e-403f-b1d1-e4eeee61eb8c" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="cbc615f2-4093-4ebd-a034-1df8eb5aaad9">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <Project_x0020_Name xmlns="cbc615f2-4093-4ebd-a034-1df8eb5aaad9" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{96FE3B98-9839-4EDE-A39C-C4E0538732B7}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CF9316C7-F335-4DEE-814F-3AE37C469035}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EEC1738D-EDF7-4551-9939-A10E8CC03A92}"/>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5477B1FC-28C0-4888-BA85-4B428092BAD7}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6AC2686A-1E3E-4DE2-B8BF-9AAB0F682809}"/>
 </file>